--- a/docs/spec/tables/operators.xlsx
+++ b/docs/spec/tables/operators.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB8756E-6DFD-4C53-AA6F-E431F620ED4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F2641-7235-418A-9387-728F680E71B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>Example</t>
   </si>
@@ -62,60 +62,27 @@
     <t>Associativity</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Addition</t>
   </si>
   <si>
     <t>Left to Right</t>
   </si>
   <si>
-    <t>A1 + A2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Subtraction</t>
   </si>
   <si>
-    <t>B1 - 5</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Multiplication</t>
   </si>
   <si>
-    <t>A1 * 10</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>Division</t>
   </si>
   <si>
-    <t>C1 / 2</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Modulus</t>
   </si>
   <si>
-    <t>A1 % 2</t>
-  </si>
-  <si>
-    <t>^</t>
-  </si>
-  <si>
-    <t>C1 ^ 2</t>
-  </si>
-  <si>
     <t>Comparison</t>
   </si>
   <si>
@@ -125,54 +92,36 @@
     <t>Equals</t>
   </si>
   <si>
-    <t>A1 = A2</t>
-  </si>
-  <si>
     <t>!=</t>
   </si>
   <si>
     <t>Not Equals</t>
   </si>
   <si>
-    <t>B1 != B2</t>
-  </si>
-  <si>
     <t>&gt;</t>
   </si>
   <si>
     <t>Greater Than</t>
   </si>
   <si>
-    <t>A1 &gt; 100</t>
-  </si>
-  <si>
     <t>&lt;</t>
   </si>
   <si>
     <t>Less Than</t>
   </si>
   <si>
-    <t>A2 &lt; 50</t>
-  </si>
-  <si>
     <t>&gt;=</t>
   </si>
   <si>
     <t>Greater Than or Equal to</t>
   </si>
   <si>
-    <t>B1 &gt;= 25</t>
-  </si>
-  <si>
     <t>&lt;=</t>
   </si>
   <si>
     <t>Less Than or Equal to</t>
   </si>
   <si>
-    <t>B2 &lt;= 75</t>
-  </si>
-  <si>
     <t>Logical</t>
   </si>
   <si>
@@ -182,27 +131,18 @@
     <t>Logical AND</t>
   </si>
   <si>
-    <t>(A1 &gt; 100) AND (A2 &lt; 50)</t>
-  </si>
-  <si>
     <t>OR</t>
   </si>
   <si>
     <t>Logical OR</t>
   </si>
   <si>
-    <t>(B1 = 25) OR (B2 != 75)</t>
-  </si>
-  <si>
     <t>NOT</t>
   </si>
   <si>
     <t>Negation</t>
   </si>
   <si>
-    <t>NOT (A1 = A2)</t>
-  </si>
-  <si>
     <t>Assignment</t>
   </si>
   <si>
@@ -215,15 +155,9 @@
     <t>Right to Left</t>
   </si>
   <si>
-    <t>A1 = 5</t>
-  </si>
-  <si>
     <t>Unary</t>
   </si>
   <si>
-    <t>-A1</t>
-  </si>
-  <si>
     <t>Type determination</t>
   </si>
   <si>
@@ -233,33 +167,18 @@
     <t>Logical NOT</t>
   </si>
   <si>
-    <t>~C3</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
     <t>:</t>
   </si>
   <si>
-    <t>Cell Range Reference</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>A1:A10</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
     <t>Table Reference</t>
   </si>
   <si>
-    <t>Table2!A1</t>
-  </si>
-  <si>
     <t>Access</t>
   </si>
   <si>
@@ -290,9 +209,6 @@
     <t>TYPEOF</t>
   </si>
   <si>
-    <t>TYPEOF(F6)</t>
-  </si>
-  <si>
     <t>Arithmetic</t>
   </si>
   <si>
@@ -300,6 +216,93 @@
   </si>
   <si>
     <t>Unary Minus</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>MUL</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>POW</t>
+  </si>
+  <si>
+    <t>Range Reference</t>
+  </si>
+  <si>
+    <t>myTable(1:5:1,1:5:1)</t>
+  </si>
+  <si>
+    <t>( )</t>
+  </si>
+  <si>
+    <t>ADD(2,3)</t>
+  </si>
+  <si>
+    <t>SUB(myTable(1,2),5)</t>
+  </si>
+  <si>
+    <t>MUL(myTable(1:5:1),10)</t>
+  </si>
+  <si>
+    <t>DIV(myTable(1),myTable(2))</t>
+  </si>
+  <si>
+    <t>MOD(12,5)</t>
+  </si>
+  <si>
+    <t>POW(myTable(3),4)</t>
+  </si>
+  <si>
+    <t>cell1 = cell2</t>
+  </si>
+  <si>
+    <t>cond1 != cond2</t>
+  </si>
+  <si>
+    <t>cell1 &gt; 100</t>
+  </si>
+  <si>
+    <t>cell2 &lt; 50</t>
+  </si>
+  <si>
+    <t>cell1 &gt;= 25</t>
+  </si>
+  <si>
+    <t>cell2 &lt;= 75</t>
+  </si>
+  <si>
+    <t>(cell1 &gt; 100) AND (cell2 &lt; 50)</t>
+  </si>
+  <si>
+    <t>cond1 OR cond2</t>
+  </si>
+  <si>
+    <t>NOT(cond)</t>
+  </si>
+  <si>
+    <t>cell1 = 5</t>
+  </si>
+  <si>
+    <t>-cell1</t>
+  </si>
+  <si>
+    <t>TYPEOF(cell6)</t>
+  </si>
+  <si>
+    <t>~cell3</t>
+  </si>
+  <si>
+    <t>1:5:1</t>
   </si>
 </sst>
 </file>
@@ -369,12 +372,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -385,13 +385,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,17 +716,17 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="12.6328125" style="1"/>
   </cols>
   <sheetData>
@@ -738,368 +744,368 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
+      <c r="E2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
+      <c r="F3" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
+      <c r="F4" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
+      <c r="F5" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
+      <c r="B6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
+      <c r="F6" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>86</v>
+      <c r="B7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="5" t="s">
-        <v>25</v>
+      <c r="F7" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>31</v>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
-        <v>32</v>
+      <c r="F9" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>34</v>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>35</v>
+      <c r="E10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>37</v>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
-        <v>38</v>
+      <c r="F11" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>40</v>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
-        <v>41</v>
+      <c r="F12" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>43</v>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
-        <v>44</v>
+      <c r="F13" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>48</v>
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>50</v>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
-        <v>51</v>
+      <c r="F15" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>53</v>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
-        <v>54</v>
+      <c r="F16" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>62</v>
+      <c r="C19" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>84</v>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>64</v>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>65</v>
+      <c r="F20" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>70</v>
+      <c r="F21" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>72</v>
+      <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>73</v>
+      <c r="F22" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>77</v>
+        <v>47</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/docs/spec/tables/operators.xlsx
+++ b/docs/spec/tables/operators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F2641-7235-418A-9387-728F680E71B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEBFA81-32A0-4157-9710-83321F0DE870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
   <si>
     <t>Example</t>
   </si>
@@ -140,9 +140,6 @@
     <t>NOT</t>
   </si>
   <si>
-    <t>Negation</t>
-  </si>
-  <si>
     <t>Assignment</t>
   </si>
   <si>
@@ -239,30 +236,12 @@
     <t>Range Reference</t>
   </si>
   <si>
-    <t>myTable(1:5:1,1:5:1)</t>
-  </si>
-  <si>
-    <t>( )</t>
-  </si>
-  <si>
     <t>ADD(2,3)</t>
   </si>
   <si>
-    <t>SUB(myTable(1,2),5)</t>
-  </si>
-  <si>
-    <t>MUL(myTable(1:5:1),10)</t>
-  </si>
-  <si>
-    <t>DIV(myTable(1),myTable(2))</t>
-  </si>
-  <si>
     <t>MOD(12,5)</t>
   </si>
   <si>
-    <t>POW(myTable(3),4)</t>
-  </si>
-  <si>
     <t>cell1 = cell2</t>
   </si>
   <si>
@@ -303,6 +282,84 @@
   </si>
   <si>
     <t>1:5:1</t>
+  </si>
+  <si>
+    <t>BAND</t>
+  </si>
+  <si>
+    <t>BOR</t>
+  </si>
+  <si>
+    <t>BXOR</t>
+  </si>
+  <si>
+    <t>BNOT</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>BRS</t>
+  </si>
+  <si>
+    <t>Bitwise</t>
+  </si>
+  <si>
+    <t>Bitwise OR</t>
+  </si>
+  <si>
+    <t>Bitwise AND</t>
+  </si>
+  <si>
+    <t>Bitwise XOR</t>
+  </si>
+  <si>
+    <t>Bitwise NOT</t>
+  </si>
+  <si>
+    <t>Bitwise Left Shift</t>
+  </si>
+  <si>
+    <t>Bitwise Right Shift</t>
+  </si>
+  <si>
+    <t>cell, int, double, bool</t>
+  </si>
+  <si>
+    <t>BOR(cell1, 2)</t>
+  </si>
+  <si>
+    <t>BRS(cell1, 2)</t>
+  </si>
+  <si>
+    <t>BLS(cell1, 2)</t>
+  </si>
+  <si>
+    <t>BNOT(cell1, 2)</t>
+  </si>
+  <si>
+    <t>BXOR(cell1, 2)</t>
+  </si>
+  <si>
+    <t>BAND(cell1, 2)</t>
+  </si>
+  <si>
+    <t>[ ]</t>
+  </si>
+  <si>
+    <t>myTable[1:5:1,1:5:1]</t>
+  </si>
+  <si>
+    <t>SUB(myTable[1,2],5)</t>
+  </si>
+  <si>
+    <t>MUL(myTable[1:5:1],10)</t>
+  </si>
+  <si>
+    <t>DIV(myTable[1],myTable[2])</t>
+  </si>
+  <si>
+    <t>POW(myTable[3],4)</t>
   </si>
 </sst>
 </file>
@@ -345,7 +402,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -368,11 +425,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -387,16 +481,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -713,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAA00F9-1958-4299-BCCE-66D9004F88FB}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -744,104 +856,104 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>57</v>
+      <c r="A2" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>52</v>
+      <c r="E2" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="4" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="4" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="4" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="4" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -850,90 +962,90 @@
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>53</v>
+      <c r="E8" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
-        <v>52</v>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -942,178 +1054,264 @@
       <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>53</v>
+      <c r="E14" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="C19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="C20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="C21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="C22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="4" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D21:D22"/>
+  <mergeCells count="17">
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E13"/>
@@ -1124,6 +1322,13 @@
     <mergeCell ref="D8:D13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/spec/tables/operators.xlsx
+++ b/docs/spec/tables/operators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEBFA81-32A0-4157-9710-83321F0DE870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC50C61-3973-4EA5-BAFE-FA4C0C57FB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>Example</t>
-  </si>
-  <si>
-    <t>bool</t>
   </si>
   <si>
     <t>cell</t>
@@ -484,6 +481,15 @@
     <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -491,15 +497,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -828,7 +825,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -837,481 +834,488 @@
     <col min="2" max="2" width="14.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.1796875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="12.6328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10" t="s">
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="5" t="s">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="5" t="s">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="4" t="s">
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="4" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A17:A22"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E13"/>
@@ -1322,13 +1326,6 @@
     <mergeCell ref="D8:D13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
